--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T11:08:45+00:00</t>
+    <t>2024-02-07T14:28:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3243,7 +3243,7 @@
         <v>86</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>76</v>
@@ -4161,7 +4161,7 @@
         <v>86</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>76</v>
@@ -4507,7 +4507,7 @@
         <v>86</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>76</v>
@@ -4733,7 +4733,7 @@
         <v>86</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>76</v>
@@ -5651,7 +5651,7 @@
         <v>86</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>76</v>
@@ -5765,7 +5765,7 @@
         <v>86</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>76</v>
@@ -6343,7 +6343,7 @@
         <v>86</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>76</v>
@@ -7713,7 +7713,7 @@
         <v>78</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>76</v>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3986" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3986" uniqueCount="533">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T14:28:15+00:00</t>
+    <t>2024-02-07T16:04:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -591,7 +591,7 @@
     <t>Task.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Task)
+    <t xml:space="preserve">Reference(Task|https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-task)
 </t>
   </si>
   <si>
@@ -1016,7 +1016,7 @@
     <t>Task.requester</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|Organization|Patient|Practitioner|PractitionerRole|RelatedPerson)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-organization|https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-practitioner|https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-practitionerrole)
 </t>
   </si>
   <si>
@@ -1072,7 +1072,7 @@
 Executer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|HealthcareService|Patient|Device|RelatedPerson)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-organization|https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-practitioner|https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-practitionerrole|https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-healthcareservice)
 </t>
   </si>
   <si>
@@ -1097,7 +1097,7 @@
     <t>Task.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(Location|https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-location)
 </t>
   </si>
   <si>
@@ -1317,10 +1317,6 @@
   </si>
   <si>
     <t>Task.restriction.recipient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Patient|Practitioner|PractitionerRole|RelatedPerson|Group|Organization)
-</t>
   </si>
   <si>
     <t>For whom is fulfillment sought?</t>
@@ -5879,7 +5875,7 @@
         <v>86</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>76</v>
@@ -6111,7 +6107,7 @@
         <v>86</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>76</v>
@@ -7608,13 +7604,13 @@
         <v>76</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="N49" t="s" s="2">
         <v>173</v>
@@ -7685,7 +7681,7 @@
         <v>76</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>76</v>
@@ -7696,14 +7692,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7725,14 +7721,14 @@
         <v>392</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>76</v>
@@ -7769,10 +7765,10 @@
         <v>76</v>
       </c>
       <c r="AB50" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AC50" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>76</v>
@@ -7781,7 +7777,7 @@
         <v>140</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7799,7 +7795,7 @@
         <v>76</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>76</v>
@@ -7810,10 +7806,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7922,10 +7918,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8036,10 +8032,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8152,14 +8148,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8181,16 +8177,16 @@
         <v>202</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="N54" t="s" s="2">
+      <c r="O54" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>76</v>
@@ -8218,7 +8214,7 @@
         <v>206</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>76</v>
@@ -8239,7 +8235,7 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>86</v>
@@ -8257,7 +8253,7 @@
         <v>76</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>76</v>
@@ -8268,10 +8264,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8294,13 +8290,13 @@
         <v>76</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8351,7 +8347,7 @@
         <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>86</v>
@@ -8369,7 +8365,7 @@
         <v>76</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>76</v>
@@ -8380,16 +8376,16 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="C56" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="B56" t="s" s="2">
+      <c r="D56" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="C56" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="D56" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8411,14 +8407,14 @@
         <v>392</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>76</v>
@@ -8467,7 +8463,7 @@
         <v>76</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -8485,7 +8481,7 @@
         <v>76</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>76</v>
@@ -8496,10 +8492,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8608,10 +8604,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8722,10 +8718,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8838,14 +8834,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8867,16 +8863,16 @@
         <v>202</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="N60" t="s" s="2">
+      <c r="O60" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>76</v>
@@ -8886,7 +8882,7 @@
         <v>76</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="T60" t="s" s="2">
         <v>76</v>
@@ -8904,7 +8900,7 @@
         <v>206</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>76</v>
@@ -8925,7 +8921,7 @@
         <v>76</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>86</v>
@@ -8943,7 +8939,7 @@
         <v>76</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>76</v>
@@ -8954,10 +8950,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8983,10 +8979,10 @@
         <v>245</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9037,7 +9033,7 @@
         <v>76</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>86</v>
@@ -9055,7 +9051,7 @@
         <v>76</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>76</v>
@@ -9066,16 +9062,16 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="C62" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="B62" t="s" s="2">
+      <c r="D62" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="C62" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="D62" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9097,14 +9093,14 @@
         <v>392</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>76</v>
@@ -9153,7 +9149,7 @@
         <v>76</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
@@ -9171,7 +9167,7 @@
         <v>76</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>76</v>
@@ -9182,10 +9178,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9294,10 +9290,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9408,10 +9404,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9524,14 +9520,14 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9553,16 +9549,16 @@
         <v>202</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="N66" t="s" s="2">
+      <c r="O66" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>76</v>
@@ -9572,7 +9568,7 @@
         <v>76</v>
       </c>
       <c r="S66" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="T66" t="s" s="2">
         <v>76</v>
@@ -9590,7 +9586,7 @@
         <v>206</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>76</v>
@@ -9611,7 +9607,7 @@
         <v>76</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>86</v>
@@ -9629,7 +9625,7 @@
         <v>76</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>76</v>
@@ -9640,10 +9636,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9666,13 +9662,13 @@
         <v>76</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9723,7 +9719,7 @@
         <v>76</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>86</v>
@@ -9741,7 +9737,7 @@
         <v>76</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>76</v>
@@ -9752,16 +9748,16 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="C68" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="B68" t="s" s="2">
+      <c r="D68" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="C68" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="D68" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -9783,14 +9779,14 @@
         <v>392</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>76</v>
@@ -9839,7 +9835,7 @@
         <v>76</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
@@ -9857,7 +9853,7 @@
         <v>76</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>76</v>
@@ -9868,10 +9864,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9980,10 +9976,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10094,10 +10090,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10210,14 +10206,14 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -10239,16 +10235,16 @@
         <v>202</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="N72" t="s" s="2">
+      <c r="O72" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>76</v>
@@ -10258,7 +10254,7 @@
         <v>76</v>
       </c>
       <c r="S72" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="T72" t="s" s="2">
         <v>76</v>
@@ -10276,7 +10272,7 @@
         <v>206</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>76</v>
@@ -10297,7 +10293,7 @@
         <v>76</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>86</v>
@@ -10315,7 +10311,7 @@
         <v>76</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>76</v>
@@ -10326,10 +10322,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10352,13 +10348,13 @@
         <v>76</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10409,7 +10405,7 @@
         <v>76</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>86</v>
@@ -10427,7 +10423,7 @@
         <v>76</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>76</v>
@@ -10438,16 +10434,16 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="C74" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="B74" t="s" s="2">
+      <c r="D74" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="C74" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="D74" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -10469,14 +10465,14 @@
         <v>392</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>76</v>
@@ -10525,7 +10521,7 @@
         <v>76</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>77</v>
@@ -10543,7 +10539,7 @@
         <v>76</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>76</v>
@@ -10554,10 +10550,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10666,10 +10662,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10780,10 +10776,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10896,14 +10892,14 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -10925,16 +10921,16 @@
         <v>202</v>
       </c>
       <c r="L78" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="N78" t="s" s="2">
+      <c r="O78" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>76</v>
@@ -10944,7 +10940,7 @@
         <v>76</v>
       </c>
       <c r="S78" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="T78" t="s" s="2">
         <v>76</v>
@@ -10962,7 +10958,7 @@
         <v>206</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>76</v>
@@ -10983,7 +10979,7 @@
         <v>76</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>86</v>
@@ -11001,7 +10997,7 @@
         <v>76</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>76</v>
@@ -11012,10 +11008,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11038,13 +11034,13 @@
         <v>76</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="L79" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11095,7 +11091,7 @@
         <v>76</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>86</v>
@@ -11113,7 +11109,7 @@
         <v>76</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>76</v>
@@ -11124,16 +11120,16 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="C80" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="B80" t="s" s="2">
+      <c r="D80" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="C80" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="D80" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -11155,14 +11151,14 @@
         <v>392</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>76</v>
@@ -11211,7 +11207,7 @@
         <v>76</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>77</v>
@@ -11229,7 +11225,7 @@
         <v>76</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>76</v>
@@ -11240,10 +11236,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11352,10 +11348,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11466,10 +11462,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11582,14 +11578,14 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -11611,16 +11607,16 @@
         <v>202</v>
       </c>
       <c r="L84" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="M84" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="M84" t="s" s="2">
+      <c r="N84" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="N84" t="s" s="2">
+      <c r="O84" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>76</v>
@@ -11630,7 +11626,7 @@
         <v>76</v>
       </c>
       <c r="S84" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="T84" t="s" s="2">
         <v>76</v>
@@ -11648,7 +11644,7 @@
         <v>206</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>76</v>
@@ -11669,7 +11665,7 @@
         <v>76</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>86</v>
@@ -11687,7 +11683,7 @@
         <v>76</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>76</v>
@@ -11698,10 +11694,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11727,10 +11723,10 @@
         <v>245</v>
       </c>
       <c r="L85" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="M85" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11781,7 +11777,7 @@
         <v>76</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>86</v>
@@ -11799,7 +11795,7 @@
         <v>76</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>76</v>
@@ -11810,16 +11806,16 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="C86" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="B86" t="s" s="2">
+      <c r="D86" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="C86" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="D86" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -11841,14 +11837,14 @@
         <v>392</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>76</v>
@@ -11897,7 +11893,7 @@
         <v>76</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>77</v>
@@ -11915,7 +11911,7 @@
         <v>76</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>76</v>
@@ -11926,10 +11922,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12038,10 +12034,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12152,10 +12148,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12268,14 +12264,14 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -12297,16 +12293,16 @@
         <v>202</v>
       </c>
       <c r="L90" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="M90" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="M90" t="s" s="2">
+      <c r="N90" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="N90" t="s" s="2">
+      <c r="O90" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>76</v>
@@ -12316,7 +12312,7 @@
         <v>76</v>
       </c>
       <c r="S90" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="T90" t="s" s="2">
         <v>76</v>
@@ -12334,7 +12330,7 @@
         <v>206</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>76</v>
@@ -12355,7 +12351,7 @@
         <v>76</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>86</v>
@@ -12373,7 +12369,7 @@
         <v>76</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>76</v>
@@ -12384,10 +12380,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12413,10 +12409,10 @@
         <v>149</v>
       </c>
       <c r="L91" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="M91" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -12467,7 +12463,7 @@
         <v>76</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>86</v>
@@ -12485,7 +12481,7 @@
         <v>76</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>76</v>
@@ -12496,10 +12492,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12525,14 +12521,14 @@
         <v>392</v>
       </c>
       <c r="L92" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="M92" t="s" s="2">
         <v>500</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>501</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>76</v>
@@ -12569,10 +12565,10 @@
         <v>76</v>
       </c>
       <c r="AB92" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AC92" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AD92" t="s" s="2">
         <v>76</v>
@@ -12581,7 +12577,7 @@
         <v>140</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>77</v>
@@ -12599,7 +12595,7 @@
         <v>76</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>76</v>
@@ -12610,10 +12606,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12722,10 +12718,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12836,10 +12832,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -12952,14 +12948,14 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
@@ -12981,16 +12977,16 @@
         <v>202</v>
       </c>
       <c r="L96" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="M96" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>509</v>
       </c>
       <c r="N96" t="s" s="2">
         <v>213</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>76</v>
@@ -13018,7 +13014,7 @@
         <v>206</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="Z96" t="s" s="2">
         <v>76</v>
@@ -13039,7 +13035,7 @@
         <v>76</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>86</v>
@@ -13057,7 +13053,7 @@
         <v>76</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>76</v>
@@ -13068,10 +13064,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13094,17 +13090,17 @@
         <v>76</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L97" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="M97" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>76</v>
@@ -13153,7 +13149,7 @@
         <v>76</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>86</v>
@@ -13171,7 +13167,7 @@
         <v>76</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>76</v>
@@ -13182,13 +13178,13 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="C98" t="s" s="2">
         <v>516</v>
-      </c>
-      <c r="B98" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="C98" t="s" s="2">
-        <v>517</v>
       </c>
       <c r="D98" t="s" s="2">
         <v>76</v>
@@ -13213,14 +13209,14 @@
         <v>392</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>76</v>
@@ -13269,7 +13265,7 @@
         <v>76</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>77</v>
@@ -13287,7 +13283,7 @@
         <v>76</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>76</v>
@@ -13298,10 +13294,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13410,10 +13406,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13524,10 +13520,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13640,14 +13636,14 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
@@ -13669,16 +13665,16 @@
         <v>202</v>
       </c>
       <c r="L102" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="M102" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>509</v>
       </c>
       <c r="N102" t="s" s="2">
         <v>213</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>76</v>
@@ -13688,7 +13684,7 @@
         <v>76</v>
       </c>
       <c r="S102" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="T102" t="s" s="2">
         <v>76</v>
@@ -13706,7 +13702,7 @@
         <v>206</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="Z102" t="s" s="2">
         <v>76</v>
@@ -13727,7 +13723,7 @@
         <v>76</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>86</v>
@@ -13745,7 +13741,7 @@
         <v>76</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>76</v>
@@ -13756,10 +13752,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -13782,17 +13778,17 @@
         <v>76</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L103" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="M103" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>76</v>
@@ -13841,7 +13837,7 @@
         <v>76</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>86</v>
@@ -13859,7 +13855,7 @@
         <v>76</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>76</v>
@@ -13870,13 +13866,13 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="C104" t="s" s="2">
         <v>525</v>
-      </c>
-      <c r="B104" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="C104" t="s" s="2">
-        <v>526</v>
       </c>
       <c r="D104" t="s" s="2">
         <v>76</v>
@@ -13901,14 +13897,14 @@
         <v>392</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>76</v>
@@ -13957,7 +13953,7 @@
         <v>76</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>77</v>
@@ -13975,7 +13971,7 @@
         <v>76</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>76</v>
@@ -13986,10 +13982,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14098,10 +14094,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14212,10 +14208,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14328,14 +14324,14 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
@@ -14357,16 +14353,16 @@
         <v>202</v>
       </c>
       <c r="L108" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="M108" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>509</v>
       </c>
       <c r="N108" t="s" s="2">
         <v>213</v>
       </c>
       <c r="O108" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>76</v>
@@ -14376,7 +14372,7 @@
         <v>76</v>
       </c>
       <c r="S108" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="T108" t="s" s="2">
         <v>76</v>
@@ -14394,7 +14390,7 @@
         <v>206</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="Z108" t="s" s="2">
         <v>76</v>
@@ -14415,7 +14411,7 @@
         <v>76</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>86</v>
@@ -14433,7 +14429,7 @@
         <v>76</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>76</v>
@@ -14444,10 +14440,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -14473,14 +14469,14 @@
         <v>149</v>
       </c>
       <c r="L109" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="M109" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>76</v>
@@ -14529,7 +14525,7 @@
         <v>76</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>86</v>
@@ -14547,7 +14543,7 @@
         <v>76</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AM109" t="s" s="2">
         <v>76</v>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T16:04:22+00:00</t>
+    <t>2024-02-07T17:31:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T17:31:40+00:00</t>
+    <t>2024-02-07T17:32:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T17:32:41+00:00</t>
+    <t>2024-02-08T09:57:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-08T09:57:00+00:00</t>
+    <t>2024-02-11T15:45:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-11T15:45:47+00:00</t>
+    <t>2024-02-12T12:45:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-12T12:45:21+00:00</t>
+    <t>2024-02-15T16:40:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T16:40:40+00:00</t>
+    <t>2024-02-16T09:35:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-16T09:35:34+00:00</t>
+    <t>2024-02-16T16:20:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-16T16:20:17+00:00</t>
+    <t>2024-02-21T15:13:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-21T15:13:04+00:00</t>
+    <t>2024-02-26T15:10:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-26T15:10:23+00:00</t>
+    <t>2024-02-29T09:27:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T09:27:29+00:00</t>
+    <t>2024-02-29T09:39:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T09:39:56+00:00</t>
+    <t>2024-03-12T11:10:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T11:10:47+00:00</t>
+    <t>2024-03-12T16:09:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T16:09:00+00:00</t>
+    <t>2024-03-12T16:11:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T16:11:04+00:00</t>
+    <t>2024-03-12T16:23:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T16:23:37+00:00</t>
+    <t>2024-03-12T17:24:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T17:24:09+00:00</t>
+    <t>2024-03-12T17:37:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T17:37:11+00:00</t>
+    <t>2024-03-12T17:47:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T17:47:27+00:00</t>
+    <t>2024-03-12T18:03:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T18:03:49+00:00</t>
+    <t>2024-03-12T18:27:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T18:27:00+00:00</t>
+    <t>2024-03-12T18:45:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T18:45:19+00:00</t>
+    <t>2024-03-12T19:04:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T19:04:09+00:00</t>
+    <t>2024-03-12T19:33:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T19:33:13+00:00</t>
+    <t>2024-03-12T20:05:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T20:05:23+00:00</t>
+    <t>2024-03-12T20:36:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T20:36:46+00:00</t>
+    <t>2024-03-12T20:57:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T20:57:01+00:00</t>
+    <t>2024-03-12T21:17:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T21:17:35+00:00</t>
+    <t>2024-03-13T08:46:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-13T08:46:11+00:00</t>
+    <t>2024-03-13T09:02:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-13T09:02:53+00:00</t>
+    <t>2024-03-13T09:28:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.0</t>
+    <t>0.4.0-ballot-1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-13T10:24:41+00:00</t>
+    <t>2024-03-13T16:27:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-13T16:27:50+00:00</t>
+    <t>2024-03-13T16:38:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-13T16:38:24+00:00</t>
+    <t>2024-03-13T17:00:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-13T17:00:38+00:00</t>
+    <t>2024-03-22T16:25:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-22T16:25:12+00:00</t>
+    <t>2024-04-02T15:41:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-02T15:41:03+00:00</t>
+    <t>2024-04-02T16:06:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-02T16:06:43+00:00</t>
+    <t>2024-04-10T16:04:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T16:04:08+00:00</t>
+    <t>2024-04-11T09:28:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-11T09:28:17+00:00</t>
+    <t>2024-04-11T09:33:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-11T09:33:38+00:00</t>
+    <t>2024-05-03T15:00:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T15:00:21+00:00</t>
+    <t>2024-05-13T08:42:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-13T08:42:46+00:00</t>
+    <t>2024-05-13T09:06:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-13T09:06:15+00:00</t>
+    <t>2024-05-15T15:09:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0-ballot-1</t>
+    <t>0.4.0-qa-preview-1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-15T15:09:55+00:00</t>
+    <t>2024-05-16T12:22:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0-qa-preview-1</t>
+    <t>0.4.0-snapshot-1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T12:22:44+00:00</t>
+    <t>2024-05-16T15:07:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T15:07:59+00:00</t>
+    <t>2024-05-16T17:06:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T17:06:23+00:00</t>
+    <t>2024-05-17T07:43:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T07:43:07+00:00</t>
+    <t>2024-05-17T08:22:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T08:22:30+00:00</t>
+    <t>2024-05-17T09:21:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T09:21:28+00:00</t>
+    <t>2024-05-17T14:16:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T14:16:22+00:00</t>
+    <t>2024-05-22T08:30:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0-snapshot-1</t>
+    <t>0.4.0-snapshot-2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T13:14:33+00:00</t>
+    <t>2024-05-23T14:57:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T14:57:06+00:00</t>
+    <t>2024-07-02T15:46:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-02T15:46:36+00:00</t>
+    <t>2024-07-09T07:30:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-09T07:30:06+00:00</t>
+    <t>2024-07-09T09:01:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-09T09:01:38+00:00</t>
+    <t>2024-07-09T09:29:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-09T09:29:20+00:00</t>
+    <t>2024-07-09T14:18:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-09T14:18:56+00:00</t>
+    <t>2024-09-13T14:28:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-13T14:28:16+00:00</t>
+    <t>2024-10-07T14:01:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-07T14:01:40+00:00</t>
+    <t>2024-10-08T07:48:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-08T07:48:52+00:00</t>
+    <t>2024-10-23T09:49:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T09:49:13+00:00</t>
+    <t>2024-12-02T10:17:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-02T10:17:54+00:00</t>
+    <t>2024-12-04T15:03:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-04T15:03:14+00:00</t>
+    <t>2024-12-05T09:03:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0-snapshot-2</t>
+    <t>0.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-05T09:03:52+00:00</t>
+    <t>2024-12-09T11:05:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T11:05:44+00:00</t>
+    <t>2024-12-09T11:19:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T11:19:41+00:00</t>
+    <t>2024-12-09T12:55:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T12:55:38+00:00</t>
+    <t>2024-12-09T13:16:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T13:16:30+00:00</t>
+    <t>2024-12-09T13:44:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T13:44:46+00:00</t>
+    <t>2024-12-09T13:53:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T13:53:32+00:00</t>
+    <t>2024-12-09T14:17:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0</t>
+    <t>0.5.0-snapshot-1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T16:43:44+00:00</t>
+    <t>2024-12-10T08:40:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-10T08:40:22+00:00</t>
+    <t>2024-12-10T08:43:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-10T08:43:17+00:00</t>
+    <t>2024-12-10T08:45:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-10T08:45:21+00:00</t>
+    <t>2024-12-16T09:17:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T09:17:42+00:00</t>
+    <t>2024-12-16T09:21:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T09:21:00+00:00</t>
+    <t>2024-12-16T09:28:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T09:28:29+00:00</t>
+    <t>2024-12-16T09:31:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T09:31:22+00:00</t>
+    <t>2024-12-16T09:34:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T09:34:54+00:00</t>
+    <t>2024-12-16T09:49:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T09:49:25+00:00</t>
+    <t>2024-12-16T09:53:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T09:53:18+00:00</t>
+    <t>2024-12-16T10:03:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T10:03:27+00:00</t>
+    <t>2024-12-16T10:04:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T10:04:41+00:00</t>
+    <t>2024-12-16T10:07:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T10:07:45+00:00</t>
+    <t>2024-12-16T10:11:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T10:11:58+00:00</t>
+    <t>2024-12-16T10:18:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T10:18:50+00:00</t>
+    <t>2024-12-16T10:19:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T10:19:28+00:00</t>
+    <t>2024-12-16T10:26:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T10:26:01+00:00</t>
+    <t>2025-01-22T15:00:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-22T15:00:55+00:00</t>
+    <t>2025-01-28T15:58:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-28T15:58:19+00:00</t>
+    <t>2025-03-03T10:17:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-03T10:17:50+00:00</t>
+    <t>2025-03-03T10:20:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-03T10:20:03+00:00</t>
+    <t>2025-03-03T17:10:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-03T17:10:11+00:00</t>
+    <t>2025-03-07T13:29:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-07T13:29:09+00:00</t>
+    <t>2025-03-10T14:14:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.0-snapshot-1</t>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-10T14:14:07+00:00</t>
+    <t>2025-03-13T17:00:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-13T17:00:51+00:00</t>
+    <t>2025-03-13T21:07:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-13T21:07:49+00:00</t>
+    <t>2025-03-14T08:18:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-14T08:18:51+00:00</t>
+    <t>2025-03-14T08:31:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-14T08:31:00+00:00</t>
+    <t>2025-03-14T08:36:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-14T08:36:00+00:00</t>
+    <t>2025-03-14T08:58:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-14T08:58:55+00:00</t>
+    <t>2025-03-14T09:23:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-14T09:23:47+00:00</t>
+    <t>2025-03-17T13:12:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.0</t>
+    <t>0.6.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-17T13:12:35+00:00</t>
+    <t>2025-03-18T09:01:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-18T09:01:13+00:00</t>
+    <t>2025-03-27T16:26:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-27T16:26:35+00:00</t>
+    <t>2025-06-04T09:55:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2033,15 +2033,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="46.05859375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="32.42578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="18.68359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.48828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="27.80078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="16.015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2052,26 +2052,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="169.1328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="102.80859375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="43.2734375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="145.00390625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="88.13671875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="37.1015625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="55.72265625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="109.98828125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="62.87890625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="47.7734375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="94.296875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="53.91015625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T09:55:05+00:00</t>
+    <t>2025-06-10T08:02:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-10T08:02:33+00:00</t>
+    <t>2025-07-17T08:38:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T08:38:04+00:00</t>
+    <t>2025-07-17T09:53:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T09:53:53+00:00</t>
+    <t>2025-07-17T13:53:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T13:53:21+00:00</t>
+    <t>2025-07-17T14:29:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T14:29:52+00:00</t>
+    <t>2025-07-17T15:27:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T15:27:59+00:00</t>
+    <t>2025-07-17T15:32:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T15:32:30+00:00</t>
+    <t>2025-07-25T09:27:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T09:27:54+00:00</t>
+    <t>2025-07-28T16:37:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T16:37:17+00:00</t>
+    <t>2025-07-29T14:46:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-29T14:46:28+00:00</t>
+    <t>2025-07-29T15:03:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-29T15:03:53+00:00</t>
+    <t>2025-07-30T08:54:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2033,15 +2033,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.48828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="27.80078125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="16.015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="46.05859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="32.42578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="18.68359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2052,26 +2052,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="145.00390625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="88.13671875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="37.1015625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="169.1328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="102.80859375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="43.2734375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="47.7734375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="94.296875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="53.91015625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="55.72265625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="109.98828125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="62.87890625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-30T08:54:50+00:00</t>
+    <t>2025-07-30T09:38:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-30T09:38:37+00:00</t>
+    <t>2025-10-16T15:18:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.0</t>
+    <t>0.7.0-snapshot-1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T15:18:57+00:00</t>
+    <t>2025-10-17T13:18:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T13:18:06+00:00</t>
+    <t>2025-10-17T13:49:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T13:49:18+00:00</t>
+    <t>2026-01-19T14:25:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-19T14:25:36+00:00</t>
+    <t>2026-01-20T13:10:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-task.xlsx
+++ b/main/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-20T13:10:13+00:00</t>
+    <t>2026-01-21T15:54:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
